--- a/backend/datasets/agencies_geo_preprocessed.xlsx
+++ b/backend/datasets/agencies_geo_preprocessed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,9 @@
       <c r="B4" t="n">
         <v>1856</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1934</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>London</t>
@@ -591,7 +593,9 @@
       <c r="B5" t="n">
         <v>1856</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1956</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>İstanbul</t>
@@ -626,7 +630,9 @@
       <c r="B6" t="n">
         <v>1856</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>1955</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>İzmir</t>
@@ -735,7 +741,9 @@
       <c r="B9" t="n">
         <v>1862</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1957</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Aydın</t>
@@ -770,7 +778,9 @@
       <c r="B10" t="n">
         <v>1862</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1960</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Larnaca</t>
@@ -805,7 +815,9 @@
       <c r="B11" t="n">
         <v>1862</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1950</v>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Manisa</t>
@@ -840,7 +852,9 @@
       <c r="B12" t="n">
         <v>1862</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1938</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Thessaloniki</t>
@@ -910,7 +924,9 @@
       <c r="B14" t="n">
         <v>1867</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1958</v>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Alexandria</t>
@@ -945,7 +961,9 @@
       <c r="B15" t="n">
         <v>1868</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1950</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Paris</t>
@@ -980,7 +998,9 @@
       <c r="B16" t="n">
         <v>1869</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1941</v>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Antalya</t>
@@ -1015,7 +1035,9 @@
       <c r="B17" t="n">
         <v>1872</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1948</v>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Port Said</t>
@@ -1048,17 +1070,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>1874</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1967</v>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bursa</t>
+          <t>İstanbul</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Old City</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1068,14 +1092,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Unknown, Bursa, Turkey</t>
+          <t>Old City, İstanbul, Turkey</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>39.9895878</v>
+        <v>41.006381</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8944669</v>
+        <v>28.9758715</v>
       </c>
     </row>
     <row r="19">
@@ -1083,14 +1107,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C19" t="n">
-        <v>1880</v>
+        <v>1957</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Damascus</t>
+          <t>Jaffa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1100,19 +1124,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Unknown, Damascus, Syria</t>
+          <t>Unknown, Jaffa, Israel</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>39.2884381</v>
+        <v>32.0443395</v>
       </c>
       <c r="I19" t="n">
-        <v>-77.20387169999999</v>
+        <v>34.7509908</v>
       </c>
     </row>
     <row r="20">
@@ -1122,10 +1146,12 @@
       <c r="B20" t="n">
         <v>1875</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1954</v>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Edirne</t>
+          <t>Bursa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1140,14 +1166,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Unknown, Edirne, Turkey</t>
+          <t>Unknown, Bursa, Turkey</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>41.6759327</v>
+        <v>39.9895878</v>
       </c>
       <c r="I20" t="n">
-        <v>26.5587225</v>
+        <v>28.8944669</v>
       </c>
     </row>
     <row r="21">
@@ -1162,7 +1188,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Damascus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1172,19 +1198,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Unknown, Ruse, Bulgaria</t>
+          <t>Unknown, Damascus, Syria</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>43.8480413</v>
+        <v>39.2884381</v>
       </c>
       <c r="I21" t="n">
-        <v>25.9542057</v>
+        <v>-77.20387169999999</v>
       </c>
     </row>
     <row r="22">
@@ -1192,14 +1218,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C22" t="n">
-        <v>1899</v>
+        <v>1956</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Plovdiv</t>
+          <t>Edirne</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1209,19 +1235,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Unknown, Plovdiv, Bulgaria</t>
+          <t>Unknown, Edirne, Turkey</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>42.1418541</v>
+        <v>41.6759327</v>
       </c>
       <c r="I22" t="n">
-        <v>24.7499297</v>
+        <v>26.5587225</v>
       </c>
     </row>
     <row r="23">
@@ -1229,12 +1255,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1879</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>1875</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1880</v>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Limassol</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1244,19 +1272,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Unknown, Limassol, Cyprus</t>
+          <t>Unknown, Ruse, Bulgaria</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>34.6852901</v>
+        <v>43.8480413</v>
       </c>
       <c r="I23" t="n">
-        <v>33.0332657</v>
+        <v>25.9542057</v>
       </c>
     </row>
     <row r="24">
@@ -1264,12 +1292,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1879</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>1878</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1899</v>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Plovdiv</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1279,19 +1309,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Unknown, Nicosia, Cyprus</t>
+          <t>Unknown, Plovdiv, Bulgaria</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>35.1746503</v>
+        <v>42.1418541</v>
       </c>
       <c r="I24" t="n">
-        <v>33.3638783</v>
+        <v>24.7499297</v>
       </c>
     </row>
     <row r="25">
@@ -1299,14 +1329,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C25" t="n">
-        <v>1882</v>
+        <v>1936</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Limassol</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1316,19 +1346,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Unknown, Varna, Bulgaria</t>
+          <t>Unknown, Limassol, Cyprus</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>43.2073873</v>
+        <v>34.6852901</v>
       </c>
       <c r="I25" t="n">
-        <v>27.9166653</v>
+        <v>33.0332657</v>
       </c>
     </row>
     <row r="26">
@@ -1336,36 +1366,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C26" t="n">
-        <v>1898</v>
+        <v>1967</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aydın</t>
+          <t>Nicosia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nazilli</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nazilli, Aydın, Turkey</t>
+          <t>Unknown, Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>37.7405798</v>
+        <v>35.1746503</v>
       </c>
       <c r="I26" t="n">
-        <v>28.0676404</v>
+        <v>33.3638783</v>
       </c>
     </row>
     <row r="27">
@@ -1373,34 +1403,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1886</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>1880</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1882</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>İstanbul</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Yeni Cami</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yeni Cami, İstanbul, Turkey</t>
+          <t>Unknown, Varna, Bulgaria</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>41.006381</v>
+        <v>43.2073873</v>
       </c>
       <c r="I27" t="n">
-        <v>28.9758715</v>
+        <v>27.9166653</v>
       </c>
     </row>
     <row r="28">
@@ -1408,17 +1440,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1889</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>1881</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1898</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Adana</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Nazilli</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1428,14 +1462,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Unknown, Adana, Turkey</t>
+          <t>Nazilli, Aydın, Turkey</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>36.9863599</v>
+        <v>37.7405798</v>
       </c>
       <c r="I28" t="n">
-        <v>35.3252861</v>
+        <v>28.0676404</v>
       </c>
     </row>
     <row r="29">
@@ -1443,17 +1477,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1889</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>1886</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1953</v>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Konya</t>
+          <t>İstanbul</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yeni Cami</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1463,14 +1499,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Unknown, Konya, Turkey</t>
+          <t>Yeni Cami, İstanbul, Turkey</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>37.872734</v>
+        <v>41.006381</v>
       </c>
       <c r="I29" t="n">
-        <v>32.4924376</v>
+        <v>28.9758715</v>
       </c>
     </row>
     <row r="30">
@@ -1478,12 +1514,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>1887</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1958</v>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Denizli</t>
+          <t>Cairo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1493,19 +1531,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Unknown, Denizli, Turkey</t>
+          <t>Unknown, Cairo, Egypt</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>37.8275892</v>
+        <v>30.0443879</v>
       </c>
       <c r="I30" t="n">
-        <v>29.2389539</v>
+        <v>31.2357257</v>
       </c>
     </row>
     <row r="31">
@@ -1513,12 +1551,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1890</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>1889</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1950</v>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Muğla</t>
+          <t>Adana</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1533,14 +1573,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Unknown, Muğla, Turkey</t>
+          <t>Unknown, Adana, Turkey</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>37.1642053</v>
+        <v>36.9863599</v>
       </c>
       <c r="I31" t="n">
-        <v>28.2624288</v>
+        <v>35.3252861</v>
       </c>
     </row>
     <row r="32">
@@ -1548,14 +1588,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C32" t="n">
-        <v>1899</v>
+        <v>1951</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Konya</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1565,19 +1605,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Unknown, Sofia, Bulgaria</t>
+          <t>Unknown, Konya, Turkey</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>42.6977028</v>
+        <v>37.872734</v>
       </c>
       <c r="I32" t="n">
-        <v>23.3217359</v>
+        <v>32.4924376</v>
       </c>
     </row>
     <row r="33">
@@ -1585,17 +1625,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1891</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>1890</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1950</v>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>İstanbul</t>
+          <t>Denizli</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pera</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1605,14 +1647,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pera, İstanbul, Turkey</t>
+          <t>Unknown, Denizli, Turkey</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>41.006381</v>
+        <v>37.8275892</v>
       </c>
       <c r="I33" t="n">
-        <v>28.9758715</v>
+        <v>29.2389539</v>
       </c>
     </row>
     <row r="34">
@@ -1620,12 +1662,12 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Balıkesir</t>
+          <t>Muğla</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1640,14 +1682,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Unknown, Balıkesir, Turkey</t>
+          <t>Unknown, Muğla, Turkey</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>39.5400798</v>
+        <v>37.1642053</v>
       </c>
       <c r="I34" t="n">
-        <v>28.0228793</v>
+        <v>28.2624288</v>
       </c>
     </row>
     <row r="35">
@@ -1655,12 +1697,14 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1891</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>1890</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1899</v>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Samsun</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1670,19 +1714,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Unknown, Samsun, Turkey</t>
+          <t>Unknown, Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>41.2303557</v>
+        <v>42.6977028</v>
       </c>
       <c r="I35" t="n">
-        <v>35.9683338</v>
+        <v>23.3217359</v>
       </c>
     </row>
     <row r="36">
@@ -1692,15 +1736,17 @@
       <c r="B36" t="n">
         <v>1891</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1974</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trabzon</t>
+          <t>İstanbul</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Pera</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1710,14 +1756,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Unknown, Trabzon, Turkey</t>
+          <t>Pera, İstanbul, Turkey</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>41.0054605</v>
+        <v>41.006381</v>
       </c>
       <c r="I36" t="n">
-        <v>39.7301463</v>
+        <v>28.9758715</v>
       </c>
     </row>
     <row r="37">
@@ -1727,10 +1773,12 @@
       <c r="B37" t="n">
         <v>1891</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1938</v>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Uşak</t>
+          <t>Balıkesir</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1745,14 +1793,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Unknown, Uşak, Turkey</t>
+          <t>Unknown, Balıkesir, Turkey</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>38.5768902</v>
+        <v>39.5400798</v>
       </c>
       <c r="I37" t="n">
-        <v>29.3729779</v>
+        <v>28.0228793</v>
       </c>
     </row>
     <row r="38">
@@ -1760,14 +1808,14 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C38" t="n">
-        <v>1899</v>
+        <v>1956</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Samsun</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1777,19 +1825,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Unknown, Ruse, Bulgaria</t>
+          <t>Unknown, Samsun, Turkey</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>43.8480413</v>
+        <v>41.2303557</v>
       </c>
       <c r="I38" t="n">
-        <v>25.9542057</v>
+        <v>35.9683338</v>
       </c>
     </row>
     <row r="39">
@@ -1797,14 +1845,14 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="C39" t="n">
-        <v>1921</v>
+        <v>1958</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lesbos</t>
+          <t>Trabzon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1814,19 +1862,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Unknown, Lesbos, Greece</t>
+          <t>Unknown, Trabzon, Turkey</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>39.1758418</v>
+        <v>41.0054605</v>
       </c>
       <c r="I39" t="n">
-        <v>25.9989135</v>
+        <v>39.7301463</v>
       </c>
     </row>
     <row r="40">
@@ -1834,12 +1882,14 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1899</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>1891</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1932</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kastamonu</t>
+          <t>Uşak</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1854,14 +1904,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Unknown, Kastamonu, Turkey</t>
+          <t>Unknown, Uşak, Turkey</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>41.3680217</v>
+        <v>38.5768902</v>
       </c>
       <c r="I40" t="n">
-        <v>33.7619177</v>
+        <v>29.3729779</v>
       </c>
     </row>
     <row r="41">
@@ -1869,12 +1919,14 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C41" t="n">
         <v>1899</v>
       </c>
-      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sivas</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1884,19 +1936,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Unknown, Sivas, Turkey</t>
+          <t>Unknown, Ruse, Bulgaria</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>39.4191717</v>
+        <v>43.8480413</v>
       </c>
       <c r="I41" t="n">
-        <v>37.1012388</v>
+        <v>25.9542057</v>
       </c>
     </row>
     <row r="42">
@@ -1904,14 +1956,14 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="C42" t="n">
-        <v>1914</v>
+        <v>1956</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bitola</t>
+          <t>Baghdad</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1921,19 +1973,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Unknown, Bitola, North Macedonia</t>
+          <t>Unknown, Baghdad, Iraq</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>41.0316005</v>
+        <v>33.3061701</v>
       </c>
       <c r="I42" t="n">
-        <v>21.3302511</v>
+        <v>44.3872213</v>
       </c>
     </row>
     <row r="43">
@@ -1941,14 +1993,14 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="C43" t="n">
-        <v>1914</v>
+        <v>1957</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Skopje</t>
+          <t>Basra</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1958,19 +2010,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Unknown, Skopje, North Macedonia</t>
+          <t>Unknown, Basra, Iraq</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>41.9961816</v>
+        <v>30.4952371</v>
       </c>
       <c r="I43" t="n">
-        <v>21.4319213</v>
+        <v>47.8090981</v>
       </c>
     </row>
     <row r="44">
@@ -1978,34 +2030,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>1894</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1943</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Konya</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Akşehir</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Akşehir, Konya, Turkey</t>
+          <t>Unknown, Aleppo, Syria</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>37.872734</v>
+        <v>36.19924</v>
       </c>
       <c r="I44" t="n">
-        <v>32.4924376</v>
+        <v>37.1637253</v>
       </c>
     </row>
     <row r="45">
@@ -2013,14 +2067,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="C45" t="n">
-        <v>1914</v>
+        <v>1965</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Alexandroupoli</t>
+          <t>Mersin</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2030,19 +2084,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Unknown, Alexandroupoli, Greece</t>
+          <t>Unknown, Mersin, Turkey</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>40.845666</v>
+        <v>36.7978381</v>
       </c>
       <c r="I45" t="n">
-        <v>25.8778814</v>
+        <v>34.6298391</v>
       </c>
     </row>
     <row r="46">
@@ -2050,12 +2104,14 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>1895</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1958</v>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Eskişehir</t>
+          <t>Ankara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2070,14 +2126,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Unknown, Eskişehir, Turkey</t>
+          <t>Unknown, Ankara, Turkey</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>39.7743941</v>
+        <v>39.9207759</v>
       </c>
       <c r="I46" t="n">
-        <v>30.519116</v>
+        <v>32.8540497</v>
       </c>
     </row>
     <row r="47">
@@ -2085,12 +2141,14 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>1898</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1921</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>Lesbos</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2100,19 +2158,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Unknown, Jerusalem, Palestine</t>
+          <t>Unknown, Lesbos, Greece</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>31.7788472</v>
+        <v>39.1758418</v>
       </c>
       <c r="I47" t="n">
-        <v>35.2257856</v>
+        <v>25.9989135</v>
       </c>
     </row>
     <row r="48">
@@ -2120,12 +2178,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>1898</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1939</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kavala</t>
+          <t>Mytilene</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2140,14 +2200,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Unknown, Kavala, Greece</t>
+          <t>Unknown, Mytilene, Greece</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>41.3042299</v>
+        <v>39.1037355</v>
       </c>
       <c r="I48" t="n">
-        <v>32.0452026</v>
+        <v>26.554788</v>
       </c>
     </row>
     <row r="49">
@@ -2155,14 +2215,14 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="C49" t="n">
-        <v>1921</v>
+        <v>1933</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Kastamonu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2172,19 +2232,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Unknown, Tripoli, Lebanon</t>
+          <t>Unknown, Kastamonu, Turkey</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>32.896672</v>
+        <v>41.3680217</v>
       </c>
       <c r="I49" t="n">
-        <v>13.1777923</v>
+        <v>33.7619177</v>
       </c>
     </row>
     <row r="50">
@@ -2192,17 +2252,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>1899</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1933</v>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Balıkesir</t>
+          <t>Sivas</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bandırma</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2212,14 +2274,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bandırma, Balıkesir, Turkey</t>
+          <t>Unknown, Sivas, Turkey</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>39.5400798</v>
+        <v>39.4191717</v>
       </c>
       <c r="I50" t="n">
-        <v>28.0228793</v>
+        <v>37.1012388</v>
       </c>
     </row>
     <row r="51">
@@ -2227,34 +2289,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>1900</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1952</v>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Aydın</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nazilli</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nazilli, Aydın, Turkey</t>
+          <t>Unknown, Unknown, Greece</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>37.7405798</v>
+        <v>26.492533</v>
       </c>
       <c r="I51" t="n">
-        <v>28.0676404</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="52">
@@ -2262,12 +2326,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>1903</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1914</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bilecik</t>
+          <t>Bitola</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2277,19 +2343,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Unknown, Bilecik, Turkey</t>
+          <t>Unknown, Bitola, North Macedonia</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>40.1543234</v>
+        <v>41.0316005</v>
       </c>
       <c r="I52" t="n">
-        <v>30.1479907</v>
+        <v>21.3302511</v>
       </c>
     </row>
     <row r="53">
@@ -2297,12 +2363,14 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1905</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>1903</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1958</v>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jaffa</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2312,19 +2380,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Unknown, Jaffa, Palestine</t>
+          <t>Unknown, Haifa, Israel</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>32.0443395</v>
+        <v>32.8191218</v>
       </c>
       <c r="I53" t="n">
-        <v>34.7509908</v>
+        <v>34.9983856</v>
       </c>
     </row>
     <row r="54">
@@ -2332,36 +2400,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C54" t="n">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mersin</t>
+          <t>Skopje</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Silifke</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Silifke, Mersin, Turkey</t>
+          <t>Unknown, Skopje, North Macedonia</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>36.7978381</v>
+        <v>41.9961816</v>
       </c>
       <c r="I54" t="n">
-        <v>34.6298391</v>
+        <v>21.4319213</v>
       </c>
     </row>
     <row r="55">
@@ -2369,17 +2437,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>1904</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1957</v>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Erzurum</t>
+          <t>Konya</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Akşehir</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2389,14 +2459,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Unknown, Erzurum, Turkey</t>
+          <t>Akşehir, Konya, Turkey</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>39.90632</v>
+        <v>37.872734</v>
       </c>
       <c r="I55" t="n">
-        <v>41.2727715</v>
+        <v>32.4924376</v>
       </c>
     </row>
     <row r="56">
@@ -2404,12 +2474,14 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>1904</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1914</v>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Famagusta</t>
+          <t>Alexandroupoli</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2419,19 +2491,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Unknown, Famagusta, Cyprus</t>
+          <t>Unknown, Alexandroupoli, Greece</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>35.1205261</v>
+        <v>40.845666</v>
       </c>
       <c r="I56" t="n">
-        <v>33.9387919</v>
+        <v>25.8778814</v>
       </c>
     </row>
     <row r="57">
@@ -2439,12 +2511,14 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>1904</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1955</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Eskişehir</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2459,14 +2533,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Unknown, Gaziantep, Turkey</t>
+          <t>Unknown, Eskişehir, Turkey</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>37.0628317</v>
+        <v>39.7743941</v>
       </c>
       <c r="I57" t="n">
-        <v>37.3792617</v>
+        <v>30.519116</v>
       </c>
     </row>
     <row r="58">
@@ -2474,12 +2548,12 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Giresun</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2489,19 +2563,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Unknown, Giresun, Turkey</t>
+          <t>Unknown, Jerusalem, Palestine</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>40.6531617</v>
+        <v>31.7788472</v>
       </c>
       <c r="I58" t="n">
-        <v>38.5172032</v>
+        <v>35.2257856</v>
       </c>
     </row>
     <row r="59">
@@ -2509,12 +2583,14 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>1904</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1932</v>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Kavala</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2524,19 +2600,19 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Unknown, Haifa, Palestine</t>
+          <t>Unknown, Kavala, Greece</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>32.8191218</v>
+        <v>41.3042299</v>
       </c>
       <c r="I59" t="n">
-        <v>34.9983856</v>
+        <v>32.0452026</v>
       </c>
     </row>
     <row r="60">
@@ -2544,12 +2620,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1906</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>1904</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1921</v>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Kütahya</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2559,19 +2637,19 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Unknown, Kütahya, Turkey</t>
+          <t>Unknown, Tripoli, Lebanon</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>39.2522508</v>
+        <v>32.896672</v>
       </c>
       <c r="I60" t="n">
-        <v>29.4937732</v>
+        <v>13.1777923</v>
       </c>
     </row>
     <row r="61">
@@ -2579,14 +2657,14 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C61" t="n">
-        <v>1912</v>
+        <v>1933</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2596,19 +2674,19 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Unknown, Tripoli, Libya</t>
+          <t>Unknown, Unknown, France</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>32.896672</v>
+        <v>26.492533</v>
       </c>
       <c r="I61" t="n">
-        <v>13.1777923</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="62">
@@ -2616,36 +2694,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C62" t="n">
-        <v>1914</v>
+        <v>1955</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Xanthi</t>
+          <t>Balıkesir</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Bandırma</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Unknown, Xanthi, Greece</t>
+          <t>Bandırma, Balıkesir, Turkey</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>41.13805</v>
+        <v>39.5400798</v>
       </c>
       <c r="I62" t="n">
-        <v>24.8864089</v>
+        <v>28.0228793</v>
       </c>
     </row>
     <row r="63">
@@ -2653,17 +2731,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>1905</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1947</v>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sakarya</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Adapazarı</t>
+          <t>Nazilli</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2673,14 +2753,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Adapazarı, Sakarya, Turkey</t>
+          <t>Nazilli, Aydın, Turkey</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>40.7731834</v>
+        <v>37.7405798</v>
       </c>
       <c r="I63" t="n">
-        <v>30.481606</v>
+        <v>28.0676404</v>
       </c>
     </row>
     <row r="64">
@@ -2688,12 +2768,14 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>1905</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1932</v>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Minya</t>
+          <t>Bilecik</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2703,19 +2785,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Unknown, Minya, Egypt</t>
+          <t>Unknown, Bilecik, Turkey</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>28.2125404</v>
+        <v>40.1543234</v>
       </c>
       <c r="I64" t="n">
-        <v>30.9123741</v>
+        <v>30.1479907</v>
       </c>
     </row>
     <row r="65">
@@ -2723,12 +2805,12 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mosul</t>
+          <t>Jaffa</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2738,19 +2820,19 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Unknown, Mosul, Iraq</t>
+          <t>Unknown, Jaffa, Palestine</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>36.343694</v>
+        <v>32.0443395</v>
       </c>
       <c r="I65" t="n">
-        <v>43.0997156</v>
+        <v>34.7509908</v>
       </c>
     </row>
     <row r="66">
@@ -2758,34 +2840,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1908</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>1905</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1958</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mersin</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Tarsus</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tarsus, Mersin, Turkey</t>
+          <t>Unknown, Jerusalem, Israel</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>36.7978381</v>
+        <v>31.7788472</v>
       </c>
       <c r="I66" t="n">
-        <v>34.6298391</v>
+        <v>35.2257856</v>
       </c>
     </row>
     <row r="67">
@@ -2793,36 +2877,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C67" t="n">
-        <v>1921</v>
+        <v>1907</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Homs</t>
+          <t>Mersin</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Silifke</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Unknown, Homs, Syria</t>
+          <t>Silifke, Mersin, Turkey</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>34.7333334</v>
+        <v>36.7978381</v>
       </c>
       <c r="I67" t="n">
-        <v>36.7166667</v>
+        <v>34.6298391</v>
       </c>
     </row>
     <row r="68">
@@ -2830,14 +2914,14 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="C68" t="n">
-        <v>1914</v>
+        <v>1955</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Komotini</t>
+          <t>Erzurum</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2847,19 +2931,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Unknown, Komotini, Greece</t>
+          <t>Unknown, Erzurum, Turkey</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>41.1182</v>
+        <v>39.90632</v>
       </c>
       <c r="I68" t="n">
-        <v>25.4035708</v>
+        <v>41.2727715</v>
       </c>
     </row>
     <row r="69">
@@ -2867,12 +2951,14 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1909</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1947</v>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tekirdağ</t>
+          <t>Famagusta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2882,19 +2968,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Unknown, Tekirdağ, Turkey</t>
+          <t>Unknown, Famagusta, Cyprus</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>41.0731403</v>
+        <v>35.1205261</v>
       </c>
       <c r="I69" t="n">
-        <v>27.4102013</v>
+        <v>33.9387919</v>
       </c>
     </row>
     <row r="70">
@@ -2902,17 +2988,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1954</v>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Afyonkarahisar</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bolvadin</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2922,14 +3010,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bolvadin, Afyonkarahisar, Turkey</t>
+          <t>Unknown, Gaziantep, Turkey</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>38.6852729</v>
+        <v>37.0628317</v>
       </c>
       <c r="I70" t="n">
-        <v>30.6427411</v>
+        <v>37.3792617</v>
       </c>
     </row>
     <row r="71">
@@ -2937,17 +3025,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1956</v>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sakarya</t>
+          <t>Giresun</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Geyve</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2957,14 +3047,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Geyve, Sakarya, Turkey</t>
+          <t>Unknown, Giresun, Turkey</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>40.7731834</v>
+        <v>40.6531617</v>
       </c>
       <c r="I71" t="n">
-        <v>30.481606</v>
+        <v>38.5172032</v>
       </c>
     </row>
     <row r="72">
@@ -2972,14 +3062,12 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1921</v>
-      </c>
+        <v>1906</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2989,19 +3077,19 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Unknown, Drama, Greece</t>
+          <t>Unknown, Haifa, Palestine</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>41.1499443</v>
+        <v>32.8191218</v>
       </c>
       <c r="I72" t="n">
-        <v>24.1468286</v>
+        <v>34.9983856</v>
       </c>
     </row>
     <row r="73">
@@ -3009,14 +3097,14 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="C73" t="n">
-        <v>1921</v>
+        <v>1958</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ioannina</t>
+          <t>Kütahya</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3026,19 +3114,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Unknown, Ioannina, Greece</t>
+          <t>Unknown, Kütahya, Turkey</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>39.6639818</v>
+        <v>39.2522508</v>
       </c>
       <c r="I73" t="n">
-        <v>20.8522784</v>
+        <v>29.4937732</v>
       </c>
     </row>
     <row r="74">
@@ -3046,12 +3134,14 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1913</v>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Kayseri</t>
+          <t>Sakarya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3066,14 +3156,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Unknown, Kayseri, Turkey</t>
+          <t>Unknown, Sakarya, Turkey</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>38.7219011</v>
+        <v>40.7731834</v>
       </c>
       <c r="I74" t="n">
-        <v>35.4873214</v>
+        <v>30.481606</v>
       </c>
     </row>
     <row r="75">
@@ -3081,12 +3171,14 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1912</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mansura</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3096,19 +3188,19 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Unknown, Mansura, Egypt</t>
+          <t>Unknown, Tripoli, Libya</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>31.037566</v>
+        <v>32.896672</v>
       </c>
       <c r="I75" t="n">
-        <v>31.38649</v>
+        <v>13.1777923</v>
       </c>
     </row>
     <row r="76">
@@ -3116,12 +3208,14 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1956</v>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ordu</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3131,19 +3225,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Alawite State</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Unknown, Ordu, Turkey</t>
+          <t>Unknown, Unknown, Alawite State</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>40.8292569</v>
+        <v>26.492533</v>
       </c>
       <c r="I76" t="n">
-        <v>37.4082764</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="77">
@@ -3151,14 +3245,14 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="C77" t="n">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Serres</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3168,19 +3262,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Unknown, Serres, Greece</t>
+          <t>Unknown, Unknown, Egypt</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>48.6911344</v>
+        <v>26.492533</v>
       </c>
       <c r="I77" t="n">
-        <v>6.4642569</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="78">
@@ -3188,12 +3282,14 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>1906</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1914</v>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Soufli</t>
+          <t>Xanthi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3208,14 +3304,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Unknown, Soufli, Greece</t>
+          <t>Unknown, Xanthi, Greece</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>41.1941684</v>
+        <v>41.13805</v>
       </c>
       <c r="I78" t="n">
-        <v>26.302313</v>
+        <v>24.8864089</v>
       </c>
     </row>
     <row r="79">
@@ -3223,17 +3319,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1910</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>1907</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1944</v>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kastamonu</t>
+          <t>Sakarya</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>İnebolu</t>
+          <t>Adapazarı</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3243,14 +3341,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>İnebolu, Kastamonu, Turkey</t>
+          <t>Adapazarı, Sakarya, Turkey</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>41.3680217</v>
+        <v>40.7731834</v>
       </c>
       <c r="I79" t="n">
-        <v>33.7619177</v>
+        <v>30.481606</v>
       </c>
     </row>
     <row r="80">
@@ -3258,34 +3356,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Adana</t>
+          <t>Minya</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ceyhan</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ceyhan, Adana, Turkey</t>
+          <t>Unknown, Minya, Egypt</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>36.9863599</v>
+        <v>28.2125404</v>
       </c>
       <c r="I80" t="n">
-        <v>35.3252861</v>
+        <v>30.9123741</v>
       </c>
     </row>
     <row r="81">
@@ -3293,34 +3391,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>1907</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1950</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Elazığ</t>
+          <t>Mosul</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Harput</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Harput, Elazığ, Turkey</t>
+          <t>Unknown, Mosul, Iraq</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>38.5824771</v>
+        <v>36.343694</v>
       </c>
       <c r="I81" t="n">
-        <v>39.396179</v>
+        <v>43.0997156</v>
       </c>
     </row>
     <row r="82">
@@ -3328,14 +3428,14 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C82" t="n">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Al Hudaydah</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3345,19 +3445,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Unknown, Al Hudaydah, Yemen</t>
+          <t>Unknown, Unknown, Italy</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>15.1159326</v>
+        <v>26.492533</v>
       </c>
       <c r="I82" t="n">
-        <v>42.844785</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="83">
@@ -3365,36 +3465,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C83" t="n">
-        <v>1912</v>
+        <v>1950</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Benghazi</t>
+          <t>Mersin</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Tarsus</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Unknown, Benghazi, Libya</t>
+          <t>Tarsus, Mersin, Turkey</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>32.1200168</v>
+        <v>36.7978381</v>
       </c>
       <c r="I83" t="n">
-        <v>20.0812174</v>
+        <v>34.6298391</v>
       </c>
     </row>
     <row r="84">
@@ -3402,12 +3502,14 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>1908</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1954</v>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bitlis</t>
+          <t>Amman</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3417,19 +3519,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Unknown, Bitlis, Turkey</t>
+          <t>Unknown, Amman, Jordan</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>38.4950867</v>
+        <v>31.9515694</v>
       </c>
       <c r="I84" t="n">
-        <v>42.1678372</v>
+        <v>35.9239625</v>
       </c>
     </row>
     <row r="85">
@@ -3437,12 +3539,14 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>1908</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1949</v>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Diyarbakır</t>
+          <t>Arak</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3452,19 +3556,19 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Unknown, Diyarbakır, Turkey</t>
+          <t>Unknown, Arak, Iran</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>37.9162222</v>
+        <v>40.9457517</v>
       </c>
       <c r="I85" t="n">
-        <v>40.2363542</v>
+        <v>32.2386093</v>
       </c>
     </row>
     <row r="86">
@@ -3472,12 +3576,14 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>1908</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1921</v>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Homs</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3487,19 +3593,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Unknown, Manchester, United Kingdom</t>
+          <t>Unknown, Homs, Syria</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>53.4794892</v>
+        <v>34.7333334</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.2451148</v>
+        <v>36.7166667</v>
       </c>
     </row>
     <row r="87">
@@ -3507,14 +3613,14 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C87" t="n">
         <v>1921</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rhodes</t>
+          <t>Gümüşhane</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3524,19 +3630,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Unknown, Rhodes, Greece</t>
+          <t>Unknown, Gümüşhane, Turkey</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>48.7584377</v>
+        <v>40.2533219</v>
       </c>
       <c r="I87" t="n">
-        <v>6.8985177</v>
+        <v>39.384968</v>
       </c>
     </row>
     <row r="88">
@@ -3544,14 +3650,14 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C88" t="n">
         <v>1914</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Shkodra</t>
+          <t>Komotini</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3561,19 +3667,19 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Unknown, Shkodra, Albania</t>
+          <t>Unknown, Komotini, Greece</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>42.0681371</v>
+        <v>41.1182</v>
       </c>
       <c r="I88" t="n">
-        <v>19.5121437</v>
+        <v>25.4035708</v>
       </c>
     </row>
     <row r="89">
@@ -3581,14 +3687,14 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C89" t="n">
-        <v>1921</v>
+        <v>1957</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sidon</t>
+          <t>Tekirdağ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3598,19 +3704,19 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Unknown, Sidon, Lebanon</t>
+          <t>Unknown, Tekirdağ, Turkey</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>33.4079425</v>
+        <v>41.0731403</v>
       </c>
       <c r="I89" t="n">
-        <v>-90.208027</v>
+        <v>27.4102013</v>
       </c>
     </row>
     <row r="90">
@@ -3618,12 +3724,14 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>1909</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1934</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3633,19 +3741,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Unknown, Van, Turkey</t>
+          <t>Unknown, Unknown, Syria</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>38.3249599</v>
+        <v>26.492533</v>
       </c>
       <c r="I90" t="n">
-        <v>43.6589825</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="91">
@@ -3653,17 +3761,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>1909</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1929</v>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Afyonkarahisar</t>
+          <t>İznik</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sandıklı</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3673,14 +3783,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Sandıklı, Afyonkarahisar, Turkey</t>
+          <t>Unknown, İznik, Turkey</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>38.6852729</v>
+        <v>40.4303445</v>
       </c>
       <c r="I91" t="n">
-        <v>30.6427411</v>
+        <v>29.7223732</v>
       </c>
     </row>
     <row r="92">
@@ -3688,17 +3798,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>1910</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1926</v>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Aydın</t>
+          <t>Afyonkarahisar</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Söke</t>
+          <t>Bolvadin</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3708,14 +3820,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Söke, Aydın, Turkey</t>
+          <t>Bolvadin, Afyonkarahisar, Turkey</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>37.7405798</v>
+        <v>38.6852729</v>
       </c>
       <c r="I92" t="n">
-        <v>28.0676404</v>
+        <v>30.6427411</v>
       </c>
     </row>
     <row r="93">
@@ -3723,17 +3835,17 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bolu</t>
+          <t>Sakarya</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Geyve</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3743,14 +3855,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Unknown, Bolu, Turkey</t>
+          <t>Geyve, Sakarya, Turkey</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>40.6212099</v>
+        <v>40.7731834</v>
       </c>
       <c r="I93" t="n">
-        <v>31.6460259</v>
+        <v>30.481606</v>
       </c>
     </row>
     <row r="94">
@@ -3758,14 +3870,14 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C94" t="n">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3775,19 +3887,19 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Unknown, Jeddah, Saudi Arabia</t>
+          <t>Unknown, Drama, Greece</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>21.5504432</v>
+        <v>41.1499443</v>
       </c>
       <c r="I94" t="n">
-        <v>39.1742363</v>
+        <v>24.1468286</v>
       </c>
     </row>
     <row r="95">
@@ -3795,12 +3907,14 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1912</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>1910</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1933</v>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Şanlıurfa</t>
+          <t>Elazığ</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3815,14 +3929,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Unknown, Şanlıurfa, Turkey</t>
+          <t>Unknown, Elazığ, Turkey</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>37.2595198</v>
+        <v>38.5824771</v>
       </c>
       <c r="I95" t="n">
-        <v>39.0408174</v>
+        <v>39.396179</v>
       </c>
     </row>
     <row r="96">
@@ -3830,36 +3944,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C96" t="n">
         <v>1921</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Hatay</t>
+          <t>Ioannina</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>İskenderun</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>İskenderun, Hatay, Turkey</t>
+          <t>Unknown, Ioannina, Greece</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>36.3451332</v>
+        <v>39.6639818</v>
       </c>
       <c r="I96" t="n">
-        <v>36.0748022</v>
+        <v>20.8522784</v>
       </c>
     </row>
     <row r="97">
@@ -3867,14 +3981,14 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C97" t="n">
-        <v>1921</v>
+        <v>1935</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Zahle</t>
+          <t>Kayseri</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3884,19 +3998,19 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Unknown, Zahle, Lebanon</t>
+          <t>Unknown, Kayseri, Turkey</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>33.8477069</v>
+        <v>38.7219011</v>
       </c>
       <c r="I97" t="n">
-        <v>35.9024955</v>
+        <v>35.4873214</v>
       </c>
     </row>
     <row r="98">
@@ -3904,12 +4018,12 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Çanakkale</t>
+          <t>Mansura</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3919,19 +4033,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Unknown, Çanakkale, Turkey</t>
+          <t>Unknown, Mansura, Egypt</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>40.0549886</v>
+        <v>31.037566</v>
       </c>
       <c r="I98" t="n">
-        <v>26.9278292</v>
+        <v>31.38649</v>
       </c>
     </row>
     <row r="99">
@@ -3939,12 +4053,14 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1915</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>1910</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1957</v>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Ordu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3954,19 +4070,19 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Unknown, Marseille, France</t>
+          <t>Unknown, Ordu, Turkey</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>43.2961743</v>
+        <v>40.8292569</v>
       </c>
       <c r="I99" t="n">
-        <v>5.3699525</v>
+        <v>37.4082764</v>
       </c>
     </row>
     <row r="100">
@@ -3974,14 +4090,14 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="C100" t="n">
         <v>1921</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hama</t>
+          <t>Serres</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3991,19 +4107,19 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Unknown, Hama, Syria</t>
+          <t>Unknown, Serres, Greece</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>35.1343368</v>
+        <v>48.6911344</v>
       </c>
       <c r="I100" t="n">
-        <v>36.7496276</v>
+        <v>6.4642569</v>
       </c>
     </row>
     <row r="101">
@@ -4011,34 +4127,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Soufli</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Aşar</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Aşar, Basra, Iraq</t>
+          <t>Unknown, Soufli, Greece</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>30.4952371</v>
+        <v>41.1941684</v>
       </c>
       <c r="I101" t="n">
-        <v>47.8090981</v>
+        <v>26.302313</v>
       </c>
     </row>
     <row r="102">
@@ -4046,34 +4162,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>1910</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1957</v>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kermanshah</t>
+          <t>Kastamonu</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>İnebolu</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Unknown, Kermanshah, Iran</t>
+          <t>İnebolu, Kastamonu, Turkey</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>34.486732</v>
+        <v>41.3680217</v>
       </c>
       <c r="I102" t="n">
-        <v>46.808727</v>
+        <v>33.7619177</v>
       </c>
     </row>
     <row r="103">
@@ -4081,34 +4199,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1920</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1948</v>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Kirkuk</t>
+          <t>Adana</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ceyhan</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Unknown, Kirkuk, Iraq</t>
+          <t>Ceyhan, Adana, Turkey</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>35.4719308</v>
+        <v>36.9863599</v>
       </c>
       <c r="I103" t="n">
-        <v>44.3953896</v>
+        <v>35.3252861</v>
       </c>
     </row>
     <row r="104">
@@ -4116,34 +4236,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Elazığ</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Harput</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Unknown, Unknown, Unknown</t>
+          <t>Harput, Elazığ, Turkey</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>26.492533</v>
+        <v>38.5824771</v>
       </c>
       <c r="I104" t="n">
-        <v>92.3308789</v>
+        <v>39.396179</v>
       </c>
     </row>
     <row r="105">
@@ -4151,12 +4271,14 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C105" t="n">
         <v>1921</v>
       </c>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Paphos</t>
+          <t>Al Hudaydah</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4166,19 +4288,19 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Unknown, Paphos, Cyprus</t>
+          <t>Unknown, Al Hudaydah, Yemen</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>34.7743988</v>
+        <v>15.1159326</v>
       </c>
       <c r="I105" t="n">
-        <v>32.4231586</v>
+        <v>42.844785</v>
       </c>
     </row>
     <row r="106">
@@ -4186,12 +4308,14 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1921</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1912</v>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Troodos</t>
+          <t>Benghazi</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4201,19 +4325,19 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Unknown, Troodos, Cyprus</t>
+          <t>Unknown, Benghazi, Libya</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>34.9233165</v>
+        <v>32.1200168</v>
       </c>
       <c r="I106" t="n">
-        <v>32.8776077</v>
+        <v>20.0812174</v>
       </c>
     </row>
     <row r="107">
@@ -4221,12 +4345,14 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1922</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1950</v>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Bethlehem</t>
+          <t>Bitlis</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4236,19 +4362,19 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Unknown, Bethlehem, Palestine</t>
+          <t>Unknown, Bitlis, Turkey</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>-1.45056</v>
+        <v>38.4950867</v>
       </c>
       <c r="I107" t="n">
-        <v>-48.4682453</v>
+        <v>42.1678372</v>
       </c>
     </row>
     <row r="108">
@@ -4256,12 +4382,14 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1922</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1935</v>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hamadan</t>
+          <t>Diyarbakır</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4271,19 +4399,19 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Unknown, Hamadan, Iran</t>
+          <t>Unknown, Diyarbakır, Turkey</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>34.9726302</v>
+        <v>37.9162222</v>
       </c>
       <c r="I108" t="n">
-        <v>48.6563818</v>
+        <v>40.2363542</v>
       </c>
     </row>
     <row r="109">
@@ -4291,12 +4419,12 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1922</v>
+        <v>1911</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Nablus</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4306,19 +4434,19 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Unknown, Nablus, Palestine</t>
+          <t>Unknown, Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>32.2205316</v>
+        <v>53.4794892</v>
       </c>
       <c r="I109" t="n">
-        <v>35.2569374</v>
+        <v>-2.2451148</v>
       </c>
     </row>
     <row r="110">
@@ -4326,12 +4454,14 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1922</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1921</v>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Rhodes</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4341,19 +4471,19 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Unknown, Ramallah, Palestine</t>
+          <t>Unknown, Rhodes, Greece</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>31.8978012</v>
+        <v>48.7584377</v>
       </c>
       <c r="I110" t="n">
-        <v>35.1924223</v>
+        <v>6.8985177</v>
       </c>
     </row>
     <row r="111">
@@ -4361,12 +4491,14 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1922</v>
-      </c>
-      <c r="C111" t="inlineStr"/>
+        <v>1911</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1914</v>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tehran</t>
+          <t>Shkodra</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4376,19 +4508,19 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Unknown, Tehran, Iran</t>
+          <t>Unknown, Shkodra, Albania</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>35.6892523</v>
+        <v>42.0681371</v>
       </c>
       <c r="I111" t="n">
-        <v>51.3896004</v>
+        <v>19.5121437</v>
       </c>
     </row>
     <row r="112">
@@ -4396,14 +4528,14 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="C112" t="n">
-        <v>1957</v>
+        <v>1921</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Naples</t>
+          <t>Sidon</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4413,19 +4545,19 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Unknown, Naples, Italy</t>
+          <t>Unknown, Sidon, Lebanon</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>40.8358846</v>
+        <v>33.4079425</v>
       </c>
       <c r="I112" t="n">
-        <v>14.2487679</v>
+        <v>-90.208027</v>
       </c>
     </row>
     <row r="113">
@@ -4433,14 +4565,14 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="C113" t="n">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kırklareli</t>
+          <t>Van</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4455,14 +4587,14 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Unknown, Kırklareli, Turkey</t>
+          <t>Unknown, Van, Turkey</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>41.7078046</v>
+        <v>38.3249599</v>
       </c>
       <c r="I113" t="n">
-        <v>27.6051334</v>
+        <v>43.6589825</v>
       </c>
     </row>
     <row r="114">
@@ -4470,19 +4602,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="C114" t="n">
-        <v>1933</v>
+        <v>1947</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bayburt</t>
+          <t>Afyonkarahisar</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sandıklı</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4492,14 +4624,14 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Unknown, Bayburt, Turkey</t>
+          <t>Sandıklı, Afyonkarahisar, Turkey</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>40.2023027</v>
+        <v>38.6852729</v>
       </c>
       <c r="I114" t="n">
-        <v>40.2121599</v>
+        <v>30.6427411</v>
       </c>
     </row>
     <row r="115">
@@ -4507,19 +4639,17 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1900</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1956</v>
-      </c>
+        <v>1912</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ankara</t>
+          <t>Aydın</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Söke</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4529,14 +4659,14 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Unknown, Ankara, Turkey</t>
+          <t>Söke, Aydın, Turkey</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>39.9207759</v>
+        <v>37.7405798</v>
       </c>
       <c r="I115" t="n">
-        <v>32.8540497</v>
+        <v>28.0676404</v>
       </c>
     </row>
     <row r="116">
@@ -4544,14 +4674,14 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1900</v>
+        <v>1912</v>
       </c>
       <c r="C116" t="n">
-        <v>1943</v>
+        <v>1957</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Bolu</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4561,19 +4691,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Unknown, Aleppo, Syria</t>
+          <t>Unknown, Bolu, Turkey</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>36.19924</v>
+        <v>40.6212099</v>
       </c>
       <c r="I116" t="n">
-        <v>37.1637253</v>
+        <v>31.6460259</v>
       </c>
     </row>
     <row r="117">
@@ -4581,14 +4711,14 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C117" t="n">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>İznik</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4598,19 +4728,19 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Unknown, İznik, Turkey</t>
+          <t>Unknown, Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>40.4303445</v>
+        <v>21.5504432</v>
       </c>
       <c r="I117" t="n">
-        <v>29.7223732</v>
+        <v>39.1742363</v>
       </c>
     </row>
     <row r="118">
@@ -4618,14 +4748,14 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="C118" t="n">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Şanlıurfa</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4635,19 +4765,19 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Unknown, Amman, Jordan</t>
+          <t>Unknown, Şanlıurfa, Turkey</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>31.9515694</v>
+        <v>37.2595198</v>
       </c>
       <c r="I118" t="n">
-        <v>35.9239625</v>
+        <v>39.0408174</v>
       </c>
     </row>
     <row r="119">
@@ -4655,19 +4785,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="C119" t="n">
         <v>1921</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Gümüşhane</t>
+          <t>Hatay</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>İskenderun</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4677,14 +4807,14 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Unknown, Gümüşhane, Turkey</t>
+          <t>İskenderun, Hatay, Turkey</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>40.2533219</v>
+        <v>36.3451332</v>
       </c>
       <c r="I119" t="n">
-        <v>39.384968</v>
+        <v>36.0748022</v>
       </c>
     </row>
     <row r="120">
@@ -4692,14 +4822,14 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="C120" t="n">
-        <v>1934</v>
+        <v>1958</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Zonguldak</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4709,19 +4839,19 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Unknown, Zonguldak, Turkey</t>
+          <t>Unknown, Unknown, Cyprus</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>41.250324</v>
+        <v>26.492533</v>
       </c>
       <c r="I120" t="n">
-        <v>31.8389738</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="121">
@@ -4729,14 +4859,14 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1902</v>
+        <v>1914</v>
       </c>
       <c r="C121" t="n">
-        <v>1928</v>
+        <v>1950</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Mytilene</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4746,19 +4876,19 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Unknown, Mytilene, Greece</t>
+          <t>Unknown, Unknown, Turkey</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>39.1037355</v>
+        <v>26.492533</v>
       </c>
       <c r="I121" t="n">
-        <v>26.554788</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="122">
@@ -4766,14 +4896,14 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="C122" t="n">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ismailia</t>
+          <t>Zahle</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4783,19 +4913,19 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Unknown, Ismailia, Egypt</t>
+          <t>Unknown, Zahle, Lebanon</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>30.6043775</v>
+        <v>33.8477069</v>
       </c>
       <c r="I122" t="n">
-        <v>32.2770825</v>
+        <v>35.9024955</v>
       </c>
     </row>
     <row r="123">
@@ -4803,14 +4933,12 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1919</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1946</v>
-      </c>
+        <v>1914</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Arak</t>
+          <t>Çanakkale</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4820,19 +4948,19 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Unknown, Arak, Iran</t>
+          <t>Unknown, Çanakkale, Turkey</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>40.9457517</v>
+        <v>40.0549886</v>
       </c>
       <c r="I123" t="n">
-        <v>32.2386093</v>
+        <v>26.9278292</v>
       </c>
     </row>
     <row r="124">
@@ -4840,14 +4968,12 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1928</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1932</v>
-      </c>
+        <v>1915</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Malatya</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4857,19 +4983,19 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Unknown, Malatya, Turkey</t>
+          <t>Unknown, Marseille, France</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>38.3487153</v>
+        <v>43.2961743</v>
       </c>
       <c r="I124" t="n">
-        <v>38.3190674</v>
+        <v>5.3699525</v>
       </c>
     </row>
     <row r="125">
@@ -4914,14 +5040,14 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1900</v>
+        <v>1916</v>
       </c>
       <c r="C126" t="n">
-        <v>1956</v>
+        <v>1932</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4936,14 +5062,14 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Unknown, Baghdad, Iraq</t>
+          <t>Unknown, Unknown, Iraq</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>33.3061701</v>
+        <v>26.492533</v>
       </c>
       <c r="I126" t="n">
-        <v>44.3872213</v>
+        <v>92.3308789</v>
       </c>
     </row>
     <row r="127">
@@ -4951,14 +5077,14 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="C127" t="n">
-        <v>1933</v>
+        <v>1957</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tunis</t>
+          <t>Naples</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4968,19 +5094,19 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Unknown, Tunis, Tunisia</t>
+          <t>Unknown, Naples, Italy</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>33.8439408</v>
+        <v>40.8358846</v>
       </c>
       <c r="I127" t="n">
-        <v>9.400138</v>
+        <v>14.2487679</v>
       </c>
     </row>
     <row r="128">
@@ -4988,19 +5114,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="C128" t="n">
         <v>1934</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Çorum</t>
+          <t>Muğla</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Milas</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5010,14 +5136,14 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Unknown, Çorum, Turkey</t>
+          <t>Milas, Muğla, Turkey</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>40.5698389</v>
+        <v>37.1642053</v>
       </c>
       <c r="I128" t="n">
-        <v>34.7269292</v>
+        <v>28.2624288</v>
       </c>
     </row>
     <row r="129">
@@ -5025,14 +5151,14 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="C129" t="n">
-        <v>1956</v>
+        <v>1921</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cairo</t>
+          <t>Hama</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5042,19 +5168,819 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Unknown, Hama, Syria</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>35.1343368</v>
+      </c>
+      <c r="I129" t="n">
+        <v>36.7496276</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown, Lebanon</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>26.492533</v>
+      </c>
+      <c r="I130" t="n">
+        <v>92.3308789</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Basra</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Aşar</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Aşar, Basra, Iraq</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>30.4952371</v>
+      </c>
+      <c r="I131" t="n">
+        <v>47.8090981</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Kermanshah</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Unknown, Kermanshah, Iran</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>34.486732</v>
+      </c>
+      <c r="I132" t="n">
+        <v>46.808727</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Kirkuk</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Unknown, Kirkuk, Iraq</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>35.4719308</v>
+      </c>
+      <c r="I133" t="n">
+        <v>44.3953896</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown, Unknown</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>26.492533</v>
+      </c>
+      <c r="I134" t="n">
+        <v>92.3308789</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Paphos</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Unknown, Paphos, Cyprus</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>34.7743988</v>
+      </c>
+      <c r="I135" t="n">
+        <v>32.4231586</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Troodos</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Unknown, Troodos, Cyprus</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>34.9233165</v>
+      </c>
+      <c r="I136" t="n">
+        <v>32.8776077</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Tunis</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Unknown, Tunis, Tunisia</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>33.8439408</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9.400138</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Bethlehem</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Unknown, Bethlehem, Palestine</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>-1.45056</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-48.4682453</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Hamadan</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Unknown, Hamadan, Iran</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>34.9726302</v>
+      </c>
+      <c r="I139" t="n">
+        <v>48.6563818</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Nablus</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Unknown, Nablus, Palestine</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>32.2205316</v>
+      </c>
+      <c r="I140" t="n">
+        <v>35.2569374</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Ramallah</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Unknown, Ramallah, Palestine</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>31.8978012</v>
+      </c>
+      <c r="I141" t="n">
+        <v>35.1924223</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Tehran</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Unknown, Tehran, Iran</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>35.6892523</v>
+      </c>
+      <c r="I142" t="n">
+        <v>51.3896004</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Bayburt</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Unknown, Bayburt, Turkey</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>40.2023027</v>
+      </c>
+      <c r="I143" t="n">
+        <v>40.2121599</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kırklareli</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Unknown, Kırklareli, Turkey</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>41.7078046</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27.6051334</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Zonguldak</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Unknown, Zonguldak, Turkey</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>41.250324</v>
+      </c>
+      <c r="I145" t="n">
+        <v>31.8389738</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Ismailia</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Unknown, Cairo, Egypt</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>30.0443879</v>
-      </c>
-      <c r="I129" t="n">
-        <v>31.2357257</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Unknown, Ismailia, Egypt</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>30.6043775</v>
+      </c>
+      <c r="I146" t="n">
+        <v>32.2770825</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Malatya</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Unknown, Malatya, Turkey</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>38.3487153</v>
+      </c>
+      <c r="I147" t="n">
+        <v>38.3190674</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1952</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>İstanbul</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Yenikapı</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Yenikapı, İstanbul, Turkey</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>41.006381</v>
+      </c>
+      <c r="I148" t="n">
+        <v>28.9758715</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1958</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown, Israel</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>26.492533</v>
+      </c>
+      <c r="I149" t="n">
+        <v>92.3308789</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Çorum</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Unknown, Çorum, Turkey</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>40.5698389</v>
+      </c>
+      <c r="I150" t="n">
+        <v>34.7269292</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Unknown, Unknown, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>26.492533</v>
+      </c>
+      <c r="I151" t="n">
+        <v>92.3308789</v>
       </c>
     </row>
   </sheetData>
